--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,35 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\Test\.USE THIS TO TEST\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4AEB73-9586-4BEB-9C07-AC22A286E26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="3450" windowWidth="13560" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>BDSBaPCF Boolean Do Suppliers Bid at Peak Capacity Factors</t>
   </si>
@@ -67,9 +58,6 @@
     <t>natural gas peaker</t>
   </si>
   <si>
-    <t>Do Suppliers Bid at Peak Capacity Factors</t>
-  </si>
-  <si>
     <t>Certain plant types, such as coal and natural gas, are capable of running for most</t>
   </si>
   <si>
@@ -130,13 +118,7 @@
     <t>offshore wind</t>
   </si>
   <si>
-    <t>Biomass is considered energy limited and does not provide 100% at peak, per peak capacity factors data sheet.  Therefore, changing from national value of one to zero for California model.</t>
-  </si>
-  <si>
-    <t>Hold over notes from US Model documentation:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also, the model is producing too much from coal and petroleum compared to actual, empirical data.  In order to align with reality, these two fuel types are not treated as bidding at peak capacity factor. </t>
+    <t>crude oil</t>
   </si>
   <si>
     <t>heavy or residual fuel oil</t>
@@ -145,19 +127,13 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>crude oil</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS</t>
-  </si>
-  <si>
-    <t>Oregon model continues these factors from the U.S. model.</t>
+    <t>Do Suppliers Bid at Peak Capacity Factors (Boolean)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,13 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,23 +270,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -347,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,12 +480,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -558,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,102 +507,77 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -672,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,17 +602,17 @@
     <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +641,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -754,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,49 +692,51 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <f>B6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
         <f>B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>1</v>
       </c>
     </row>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/bdsbapcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC0BE6-1D42-7944-9F32-2ADD6271298B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -133,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,12 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,19 +527,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,82 +550,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -586,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -596,18 +646,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -615,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -623,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -631,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -639,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -647,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -655,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -663,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -671,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -679,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -687,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -695,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -704,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -713,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -722,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -731,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/bdsbapcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bdsbapcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC0BE6-1D42-7944-9F32-2ADD6271298B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11859D-DA9A-2645-998A-DEBA3A0778F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bdsbapcf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11859D-DA9A-2645-998A-DEBA3A0778F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="458" windowWidth="23963" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,23 +282,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -335,23 +317,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -527,14 +492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +507,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -550,82 +515,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -636,28 +601,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -665,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -673,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -681,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -689,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -697,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -705,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -713,15 +678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -729,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -737,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -745,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -754,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -763,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -772,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -781,13 +746,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-oregon\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/bdsbapcf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11859D-DA9A-2645-998A-DEBA3A0778F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="458" windowWidth="23963" windowHeight="11580"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -144,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,6 +283,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +542,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,82 +550,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -601,28 +636,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" customWidth="1"/>
-    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -630,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -638,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -646,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -654,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -662,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -670,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -678,15 +713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -694,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -702,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -710,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -719,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -728,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -737,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -746,13 +781,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
       <c r="B17">
         <f>B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
+++ b/InputData/elec/BDSBaPCF/Boolean Do Suppliers Bid at Peak Capacity Factors.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\BDSBaPCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-oregon\InputData\elec\BDSBaPCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A616F0-FA5D-4B75-AB23-B679D42730D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BDSBaPCF" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -133,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,6 +282,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -586,14 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +658,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -701,7 +747,7 @@
       </c>
       <c r="B13">
         <f>B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
